--- a/biology/Botanique/Trimezia_steyermarkii/Trimezia_steyermarkii.xlsx
+++ b/biology/Botanique/Trimezia_steyermarkii/Trimezia_steyermarkii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trimezia steyermarkii est une espèce de plante appartenant à la famille des Iridaceae originaire d'Amérique centrale et des Antilles.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée atteignant 1 à 1,5 mètre de haut, avec des feuilles lancéolées de 60 centimètres à 1,5 mètre  de long pour 2 centimètres de large. Les fleurs sont jaunes avec des points bruns.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèce voisine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Trimezia martinicensis (Jacq.) Herbert</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire du Panama jusqu'au Mexique (Oaxaca et Chapias), cette plante est cultivée à des fins ornementale dans les régions tropicales, en particulier en Asie du Sud-Est.
 </t>
